--- a/projects/NECB_PTool_Analysis.xlsx
+++ b/projects/NECB_PTool_Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="5430" windowWidth="20370" windowHeight="5085" tabRatio="469" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="5430" windowWidth="20370" windowHeight="5085" tabRatio="469" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="946">
   <si>
     <t>type</t>
   </si>
@@ -767,9 +767,6 @@
     <t>../../openstudio-standards/openstudio-standards/data/weather/CAN_ON_Toronto.716240_CWEC.epw</t>
   </si>
   <si>
-    <t>1.20.0-standards1</t>
-  </si>
-  <si>
     <t>["CAN_BC_Vancouver.718920_CWEC.epw","CAN_ON_Toronto.716240_CWEC.epw","CAN_PQ_Sherbrooke.716100_CWEC.epw","CAN_YT_Whitehorse.719640_CWEC.epw","CAN_NU_Resolute.719240_CWEC.epw"]</t>
   </si>
   <si>
@@ -818,9 +815,6 @@
     <t>|detailed,timestep,hourly,daily,monthly|</t>
   </si>
   <si>
-    <t>["CAN_BC_Vancouver.718920_CWEC.epw"]</t>
-  </si>
-  <si>
     <t>["FullServiceRestaurant"]</t>
   </si>
   <si>
@@ -1379,9 +1373,6 @@
     <t>ReportingMeasure</t>
   </si>
   <si>
-    <t>Phylroy-NECB Analysis</t>
-  </si>
-  <si>
     <t>Phylroys_Cluster</t>
   </si>
   <si>
@@ -2877,6 +2868,12 @@
   </si>
   <si>
     <t>['CAN_YT_Whitehorse.719640_CWEC.epw']</t>
+  </si>
+  <si>
+    <t>1.20.1-nrcan</t>
+  </si>
+  <si>
+    <t>Phylroy-NECB PTOOL Analysis</t>
   </si>
 </sst>
 </file>
@@ -5548,11 +5545,11 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1842">
     <cellStyle name="20% - Accent1" xfId="1819" builtinId="30" customBuiltin="1"/>
@@ -8579,8 +8576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8627,7 +8624,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>69</v>
@@ -8638,7 +8635,7 @@
         <v>79</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>243</v>
+        <v>944</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>162</v>
@@ -8649,7 +8646,7 @@
         <v>80</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>82</v>
@@ -8660,34 +8657,34 @@
         <v>54</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C7" s="30" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
-        <v>2 Cores - Recommended for Server</v>
+        <v>8 Cores - Recommended for Server</v>
       </c>
       <c r="D7" s="30" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
-        <v>$0.14/hour</v>
+        <v>$0.56/hour</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C8" s="30" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
-        <v xml:space="preserve">2 Cores - Worker Only - </v>
+        <v>16 Cores - Worker Only - Recommended for Worker</v>
       </c>
       <c r="D8" s="30" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
-        <v>$0.11/hour</v>
+        <v>$1.68/hour</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>56</v>
@@ -8720,7 +8717,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>447</v>
+        <v>945</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>81</v>
@@ -8918,7 +8915,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -8935,7 +8932,7 @@
         <v>27</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D38" s="2"/>
     </row>
@@ -8944,7 +8941,7 @@
         <v>27</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D39" s="2"/>
     </row>
@@ -8953,7 +8950,7 @@
         <v>27</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D40" s="2"/>
     </row>
@@ -9037,8 +9034,8 @@
   </sheetPr>
   <dimension ref="A1:Z222"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -9093,14 +9090,14 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="84" t="s">
+      <c r="U1" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -9246,7 +9243,7 @@
         <v>234</v>
       </c>
       <c r="P5" s="55" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="R5" s="55" t="s">
         <v>216</v>
@@ -9354,7 +9351,7 @@
         <v>241</v>
       </c>
       <c r="P8" s="43" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="R8" s="55" t="s">
         <v>216</v>
@@ -9365,13 +9362,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E9" s="59" t="s">
         <v>45</v>
@@ -9388,36 +9385,36 @@
         <v>20</v>
       </c>
       <c r="D10" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" s="50" t="s">
         <v>253</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>254</v>
       </c>
       <c r="F10" s="50"/>
       <c r="G10" s="50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H10" s="50"/>
       <c r="I10" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="K10" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="L10" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="M10" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="N10" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="P10" s="51" t="s">
         <v>262</v>
-      </c>
-      <c r="J10" s="50" t="s">
-        <v>263</v>
-      </c>
-      <c r="K10" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="L10" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="M10" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="N10" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="P10" s="51" t="s">
-        <v>264</v>
       </c>
       <c r="R10" s="51" t="s">
         <v>216</v>
@@ -9429,24 +9426,24 @@
         <v>20</v>
       </c>
       <c r="D11" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="E11" s="50" t="s">
         <v>256</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>257</v>
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H11" s="50"/>
       <c r="I11" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="J11" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="J11" s="50" t="s">
-        <v>259</v>
-      </c>
       <c r="P11" s="51" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="R11" s="51" t="s">
         <v>216</v>
@@ -9457,13 +9454,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>45</v>
@@ -9516,13 +9513,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>45</v>
@@ -9577,10 +9574,10 @@
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="46" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G16" s="46" t="s">
         <v>43</v>
@@ -9597,10 +9594,10 @@
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G17" s="46" t="s">
         <v>42</v>
@@ -9617,16 +9614,16 @@
       </c>
       <c r="C18" s="46"/>
       <c r="D18" s="46" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G18" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H18" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I18" s="46">
         <v>18</v>
@@ -9639,16 +9636,16 @@
       </c>
       <c r="C19" s="46"/>
       <c r="D19" s="46" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G19" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I19" s="46">
         <v>9</v>
@@ -9661,10 +9658,10 @@
       </c>
       <c r="C20" s="46"/>
       <c r="D20" s="46" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G20" s="46" t="s">
         <v>42</v>
@@ -9681,16 +9678,16 @@
       </c>
       <c r="C21" s="46"/>
       <c r="D21" s="46" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G21" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H21" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I21" s="46">
         <v>18</v>
@@ -9703,16 +9700,16 @@
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G22" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H22" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I22" s="46">
         <v>9</v>
@@ -9725,10 +9722,10 @@
       </c>
       <c r="C23" s="46"/>
       <c r="D23" s="46" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G23" s="46" t="s">
         <v>42</v>
@@ -9745,16 +9742,16 @@
       </c>
       <c r="C24" s="46"/>
       <c r="D24" s="46" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G24" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H24" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I24" s="46">
         <v>18</v>
@@ -9767,16 +9764,16 @@
       </c>
       <c r="C25" s="46"/>
       <c r="D25" s="46" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G25" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H25" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I25" s="46">
         <v>9</v>
@@ -9787,16 +9784,16 @@
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J26" s="6"/>
     </row>
@@ -9846,13 +9843,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>45</v>
@@ -9907,10 +9904,10 @@
       </c>
       <c r="C30" s="46"/>
       <c r="D30" s="46" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G30" s="46" t="s">
         <v>43</v>
@@ -9929,10 +9926,10 @@
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E31" s="46" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G31" s="46" t="s">
         <v>43</v>
@@ -9949,10 +9946,10 @@
       </c>
       <c r="C32" s="46"/>
       <c r="D32" s="46" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E32" s="46" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G32" s="46" t="s">
         <v>43</v>
@@ -9967,13 +9964,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>45</v>
@@ -10028,16 +10025,16 @@
       </c>
       <c r="C35" s="46"/>
       <c r="D35" s="46" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E35" s="46" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G35" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H35" s="46" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I35" s="46">
         <v>2</v>
@@ -10048,13 +10045,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>45</v>
@@ -10107,13 +10104,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>45</v>
@@ -10166,13 +10163,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>45</v>
@@ -10225,13 +10222,13 @@
         <v>1</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>45</v>
@@ -10284,13 +10281,13 @@
         <v>1</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>45</v>
@@ -10343,13 +10340,13 @@
         <v>1</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>45</v>
@@ -10402,16 +10399,16 @@
         <v>1</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J48" s="6"/>
     </row>
@@ -10461,13 +10458,13 @@
         <v>1</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>45</v>
@@ -10522,10 +10519,10 @@
       </c>
       <c r="C52" s="46"/>
       <c r="D52" s="46" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E52" s="46" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G52" s="46" t="s">
         <v>43</v>
@@ -10542,10 +10539,10 @@
       </c>
       <c r="C53" s="46"/>
       <c r="D53" s="46" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E53" s="46" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G53" s="46" t="s">
         <v>42</v>
@@ -10562,16 +10559,16 @@
       </c>
       <c r="C54" s="46"/>
       <c r="D54" s="46" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E54" s="46" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G54" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H54" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I54" s="46">
         <v>18</v>
@@ -10584,16 +10581,16 @@
       </c>
       <c r="C55" s="46"/>
       <c r="D55" s="46" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E55" s="46" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G55" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H55" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I55" s="46">
         <v>9</v>
@@ -10606,10 +10603,10 @@
       </c>
       <c r="C56" s="46"/>
       <c r="D56" s="46" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E56" s="46" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G56" s="46" t="s">
         <v>42</v>
@@ -10626,16 +10623,16 @@
       </c>
       <c r="C57" s="46"/>
       <c r="D57" s="46" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E57" s="46" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G57" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H57" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I57" s="46">
         <v>18</v>
@@ -10648,16 +10645,16 @@
       </c>
       <c r="C58" s="46"/>
       <c r="D58" s="46" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E58" s="46" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G58" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H58" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I58" s="46">
         <v>9</v>
@@ -10670,10 +10667,10 @@
       </c>
       <c r="C59" s="46"/>
       <c r="D59" s="46" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E59" s="46" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G59" s="46" t="s">
         <v>42</v>
@@ -10690,16 +10687,16 @@
       </c>
       <c r="C60" s="46"/>
       <c r="D60" s="46" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E60" s="46" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G60" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H60" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I60" s="46">
         <v>18</v>
@@ -10712,16 +10709,16 @@
       </c>
       <c r="C61" s="46"/>
       <c r="D61" s="46" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E61" s="46" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G61" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H61" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I61" s="46">
         <v>9</v>
@@ -10732,13 +10729,13 @@
         <v>1</v>
       </c>
       <c r="B62" s="67" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C62" s="67" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D62" s="67" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E62" s="67" t="s">
         <v>45</v>
@@ -10793,10 +10790,10 @@
       </c>
       <c r="C64" s="46"/>
       <c r="D64" s="46" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E64" s="46" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G64" s="46" t="s">
         <v>43</v>
@@ -10813,10 +10810,10 @@
       </c>
       <c r="C65" s="46"/>
       <c r="D65" s="46" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E65" s="46" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G65" s="46" t="s">
         <v>43</v>
@@ -10833,10 +10830,10 @@
       </c>
       <c r="C66" s="46"/>
       <c r="D66" s="46" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E66" s="46" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G66" s="46" t="s">
         <v>43</v>
@@ -10851,13 +10848,13 @@
         <v>1</v>
       </c>
       <c r="B67" s="67" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C67" s="67" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D67" s="67" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E67" s="67" t="s">
         <v>45</v>
@@ -10910,13 +10907,13 @@
         <v>1</v>
       </c>
       <c r="B69" s="67" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C69" s="67" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D69" s="67" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E69" s="67" t="s">
         <v>45</v>
@@ -10969,13 +10966,13 @@
         <v>1</v>
       </c>
       <c r="B71" s="67" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C71" s="67" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D71" s="67" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E71" s="67" t="s">
         <v>45</v>
@@ -11028,13 +11025,13 @@
         <v>1</v>
       </c>
       <c r="B73" s="67" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C73" s="67" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D73" s="67" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E73" s="67" t="s">
         <v>45</v>
@@ -11087,13 +11084,13 @@
         <v>1</v>
       </c>
       <c r="B75" s="67" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C75" s="67" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D75" s="67" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E75" s="67" t="s">
         <v>45</v>
@@ -11146,13 +11143,13 @@
         <v>1</v>
       </c>
       <c r="B77" s="67" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C77" s="67" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D77" s="67" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E77" s="67" t="s">
         <v>45</v>
@@ -11205,13 +11202,13 @@
         <v>1</v>
       </c>
       <c r="B79" s="67" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C79" s="67" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D79" s="67" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E79" s="67" t="s">
         <v>45</v>
@@ -11264,13 +11261,13 @@
         <v>1</v>
       </c>
       <c r="B81" s="67" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C81" s="67" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D81" s="67" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E81" s="67" t="s">
         <v>45</v>
@@ -11325,10 +11322,10 @@
       </c>
       <c r="C83" s="46"/>
       <c r="D83" s="46" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E83" s="46" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G83" s="46" t="s">
         <v>43</v>
@@ -11345,10 +11342,10 @@
       </c>
       <c r="C84" s="46"/>
       <c r="D84" s="46" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E84" s="46" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G84" s="46" t="s">
         <v>42</v>
@@ -11365,16 +11362,16 @@
       </c>
       <c r="C85" s="46"/>
       <c r="D85" s="46" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E85" s="46" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G85" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H85" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I85" s="46">
         <v>18</v>
@@ -11387,16 +11384,16 @@
       </c>
       <c r="C86" s="46"/>
       <c r="D86" s="46" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E86" s="46" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G86" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H86" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I86" s="46">
         <v>9</v>
@@ -11409,10 +11406,10 @@
       </c>
       <c r="C87" s="46"/>
       <c r="D87" s="46" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E87" s="46" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G87" s="46" t="s">
         <v>42</v>
@@ -11429,16 +11426,16 @@
       </c>
       <c r="C88" s="46"/>
       <c r="D88" s="46" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E88" s="46" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G88" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H88" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I88" s="46">
         <v>18</v>
@@ -11451,16 +11448,16 @@
       </c>
       <c r="C89" s="46"/>
       <c r="D89" s="46" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E89" s="46" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G89" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H89" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I89" s="46">
         <v>9</v>
@@ -11473,10 +11470,10 @@
       </c>
       <c r="C90" s="46"/>
       <c r="D90" s="46" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E90" s="46" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G90" s="46" t="s">
         <v>42</v>
@@ -11493,16 +11490,16 @@
       </c>
       <c r="C91" s="46"/>
       <c r="D91" s="46" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E91" s="46" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G91" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H91" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I91" s="46">
         <v>18</v>
@@ -11515,16 +11512,16 @@
       </c>
       <c r="C92" s="46"/>
       <c r="D92" s="46" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E92" s="46" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G92" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H92" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I92" s="46">
         <v>9</v>
@@ -11535,13 +11532,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="67" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C93" s="67" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D93" s="67" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E93" s="67" t="s">
         <v>45</v>
@@ -11596,10 +11593,10 @@
       </c>
       <c r="C95" s="46"/>
       <c r="D95" s="46" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E95" s="46" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G95" s="46" t="s">
         <v>43</v>
@@ -11616,10 +11613,10 @@
       </c>
       <c r="C96" s="46"/>
       <c r="D96" s="46" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E96" s="46" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G96" s="46" t="s">
         <v>42</v>
@@ -11636,16 +11633,16 @@
       </c>
       <c r="C97" s="46"/>
       <c r="D97" s="46" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E97" s="46" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G97" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H97" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I97" s="46">
         <v>18</v>
@@ -11658,16 +11655,16 @@
       </c>
       <c r="C98" s="46"/>
       <c r="D98" s="46" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E98" s="46" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G98" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H98" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I98" s="46">
         <v>9</v>
@@ -11680,10 +11677,10 @@
       </c>
       <c r="C99" s="46"/>
       <c r="D99" s="46" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E99" s="46" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G99" s="46" t="s">
         <v>42</v>
@@ -11700,16 +11697,16 @@
       </c>
       <c r="C100" s="46"/>
       <c r="D100" s="46" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E100" s="46" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G100" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H100" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I100" s="46">
         <v>18</v>
@@ -11722,16 +11719,16 @@
       </c>
       <c r="C101" s="46"/>
       <c r="D101" s="46" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E101" s="46" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G101" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H101" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I101" s="46">
         <v>9</v>
@@ -11744,10 +11741,10 @@
       </c>
       <c r="C102" s="46"/>
       <c r="D102" s="46" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E102" s="46" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G102" s="46" t="s">
         <v>42</v>
@@ -11764,16 +11761,16 @@
       </c>
       <c r="C103" s="46"/>
       <c r="D103" s="46" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E103" s="46" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G103" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H103" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I103" s="46">
         <v>18</v>
@@ -11786,16 +11783,16 @@
       </c>
       <c r="C104" s="46"/>
       <c r="D104" s="46" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E104" s="46" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G104" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H104" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I104" s="46">
         <v>9</v>
@@ -11806,13 +11803,13 @@
         <v>1</v>
       </c>
       <c r="B105" s="69" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C105" s="69" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D105" s="69" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E105" s="69" t="s">
         <v>45</v>
@@ -11865,13 +11862,13 @@
         <v>1</v>
       </c>
       <c r="B107" s="69" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C107" s="69" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D107" s="69" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E107" s="69" t="s">
         <v>45</v>
@@ -11929,7 +11926,7 @@
         <v>226</v>
       </c>
       <c r="E109" s="46" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="G109" s="46" t="s">
         <v>43</v>
@@ -11946,16 +11943,16 @@
         <v>0</v>
       </c>
       <c r="B110" s="69" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C110" s="69" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D110" s="69" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E110" s="69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J110" s="70"/>
     </row>
@@ -12005,13 +12002,13 @@
         <v>1</v>
       </c>
       <c r="B112" s="69" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C112" s="69" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D112" s="69" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E112" s="69" t="s">
         <v>45</v>
@@ -12064,13 +12061,13 @@
         <v>1</v>
       </c>
       <c r="B114" s="69" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C114" s="69" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D114" s="69" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E114" s="69" t="s">
         <v>45</v>
@@ -12125,16 +12122,16 @@
       </c>
       <c r="C116" s="46"/>
       <c r="D116" s="46" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E116" s="46" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G116" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H116" s="46" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="I116" s="46">
         <v>1</v>
@@ -12147,10 +12144,10 @@
       </c>
       <c r="C117" s="46"/>
       <c r="D117" s="46" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E117" s="46" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G117" s="46" t="s">
         <v>43</v>
@@ -12167,10 +12164,10 @@
       </c>
       <c r="C118" s="46"/>
       <c r="D118" s="46" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E118" s="46" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G118" s="46" t="s">
         <v>43</v>
@@ -12187,10 +12184,10 @@
       </c>
       <c r="C119" s="46"/>
       <c r="D119" s="46" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E119" s="46" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G119" s="46" t="s">
         <v>43</v>
@@ -12207,10 +12204,10 @@
       </c>
       <c r="C120" s="46"/>
       <c r="D120" s="46" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E120" s="46" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G120" s="46" t="s">
         <v>43</v>
@@ -12227,10 +12224,10 @@
       </c>
       <c r="C121" s="46"/>
       <c r="D121" s="46" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E121" s="46" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G121" s="46" t="s">
         <v>43</v>
@@ -12247,10 +12244,10 @@
       </c>
       <c r="C122" s="46"/>
       <c r="D122" s="46" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E122" s="46" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G122" s="46" t="s">
         <v>43</v>
@@ -12267,10 +12264,10 @@
       </c>
       <c r="C123" s="46"/>
       <c r="D123" s="46" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E123" s="46" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G123" s="46" t="s">
         <v>43</v>
@@ -12287,10 +12284,10 @@
       </c>
       <c r="C124" s="46"/>
       <c r="D124" s="46" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E124" s="46" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G124" s="46" t="s">
         <v>43</v>
@@ -12305,13 +12302,13 @@
         <v>1</v>
       </c>
       <c r="B125" s="69" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C125" s="69" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D125" s="69" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E125" s="69" t="s">
         <v>45</v>
@@ -12364,13 +12361,13 @@
         <v>1</v>
       </c>
       <c r="B127" s="69" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C127" s="69" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D127" s="69" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E127" s="69" t="s">
         <v>45</v>
@@ -12423,16 +12420,16 @@
         <v>1</v>
       </c>
       <c r="B129" s="69" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C129" s="69" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D129" s="69" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E129" s="69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J129" s="70"/>
     </row>
@@ -12482,13 +12479,13 @@
         <v>1</v>
       </c>
       <c r="B131" s="69" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C131" s="69" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D131" s="69" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E131" s="69" t="s">
         <v>45</v>
@@ -12541,13 +12538,13 @@
         <v>1</v>
       </c>
       <c r="B133" s="69" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C133" s="69" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D133" s="69" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E133" s="69" t="s">
         <v>45</v>
@@ -12600,13 +12597,13 @@
         <v>1</v>
       </c>
       <c r="B135" s="69" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C135" s="69" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D135" s="69" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E135" s="69" t="s">
         <v>45</v>
@@ -12661,16 +12658,16 @@
       </c>
       <c r="C137" s="46"/>
       <c r="D137" s="46" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E137" s="46" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G137" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H137" s="46" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I137" s="46">
         <v>10</v>
@@ -12681,13 +12678,13 @@
         <v>1</v>
       </c>
       <c r="B138" s="69" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C138" s="69" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D138" s="69" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E138" s="69" t="s">
         <v>45</v>
@@ -12742,16 +12739,16 @@
       </c>
       <c r="C140" s="46"/>
       <c r="D140" s="46" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E140" s="46" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G140" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H140" s="46" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="I140" s="46">
         <v>0.5</v>
@@ -12762,16 +12759,16 @@
         <v>1</v>
       </c>
       <c r="B141" s="69" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C141" s="69" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D141" s="69" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E141" s="69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J141" s="70"/>
     </row>
@@ -12821,13 +12818,13 @@
         <v>1</v>
       </c>
       <c r="B143" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C143" s="71" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D143" s="71" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E143" s="71" t="s">
         <v>45</v>
@@ -12880,16 +12877,16 @@
         <v>1</v>
       </c>
       <c r="B145" s="71" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C145" s="71" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D145" s="71" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E145" s="71" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J145" s="72"/>
     </row>
@@ -12939,13 +12936,13 @@
         <v>1</v>
       </c>
       <c r="B147" s="71" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C147" s="71" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D147" s="71" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E147" s="71" t="s">
         <v>45</v>
@@ -13000,10 +12997,10 @@
       </c>
       <c r="C149" s="46"/>
       <c r="D149" s="46" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E149" s="46" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G149" s="46" t="s">
         <v>43</v>
@@ -13020,10 +13017,10 @@
       </c>
       <c r="C150" s="46"/>
       <c r="D150" s="46" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E150" s="46" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G150" s="46" t="s">
         <v>42</v>
@@ -13040,16 +13037,16 @@
       </c>
       <c r="C151" s="46"/>
       <c r="D151" s="46" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E151" s="46" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G151" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H151" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I151" s="46">
         <v>18</v>
@@ -13062,16 +13059,16 @@
       </c>
       <c r="C152" s="46"/>
       <c r="D152" s="46" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E152" s="46" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G152" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H152" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I152" s="46">
         <v>9</v>
@@ -13084,10 +13081,10 @@
       </c>
       <c r="C153" s="46"/>
       <c r="D153" s="46" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E153" s="46" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G153" s="46" t="s">
         <v>42</v>
@@ -13104,16 +13101,16 @@
       </c>
       <c r="C154" s="46"/>
       <c r="D154" s="46" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E154" s="46" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G154" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H154" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I154" s="46">
         <v>18</v>
@@ -13126,16 +13123,16 @@
       </c>
       <c r="C155" s="46"/>
       <c r="D155" s="46" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E155" s="46" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G155" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H155" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I155" s="46">
         <v>9</v>
@@ -13148,10 +13145,10 @@
       </c>
       <c r="C156" s="46"/>
       <c r="D156" s="46" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E156" s="46" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G156" s="46" t="s">
         <v>42</v>
@@ -13168,16 +13165,16 @@
       </c>
       <c r="C157" s="46"/>
       <c r="D157" s="46" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E157" s="46" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G157" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H157" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I157" s="46">
         <v>18</v>
@@ -13190,16 +13187,16 @@
       </c>
       <c r="C158" s="46"/>
       <c r="D158" s="46" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E158" s="46" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G158" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H158" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I158" s="46">
         <v>9</v>
@@ -13210,16 +13207,16 @@
         <v>0</v>
       </c>
       <c r="B159" s="71" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C159" s="71" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D159" s="71" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E159" s="71" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J159" s="72"/>
     </row>
@@ -13269,13 +13266,13 @@
         <v>1</v>
       </c>
       <c r="B161" s="71" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C161" s="71" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D161" s="71" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E161" s="71" t="s">
         <v>45</v>
@@ -13289,7 +13286,7 @@
       </c>
       <c r="C162" s="46"/>
       <c r="D162" s="46" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E162" s="46" t="s">
         <v>217</v>
@@ -13329,10 +13326,10 @@
       </c>
       <c r="C163" s="46"/>
       <c r="D163" s="46" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E163" s="46" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G163" s="46" t="s">
         <v>43</v>
@@ -13349,10 +13346,10 @@
       </c>
       <c r="C164" s="46"/>
       <c r="D164" s="46" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E164" s="46" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G164" s="46" t="s">
         <v>42</v>
@@ -13369,16 +13366,16 @@
       </c>
       <c r="C165" s="46"/>
       <c r="D165" s="46" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E165" s="46" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G165" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H165" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I165" s="46">
         <v>18</v>
@@ -13391,16 +13388,16 @@
       </c>
       <c r="C166" s="46"/>
       <c r="D166" s="46" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E166" s="46" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G166" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H166" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I166" s="46">
         <v>9</v>
@@ -13413,10 +13410,10 @@
       </c>
       <c r="C167" s="46"/>
       <c r="D167" s="46" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E167" s="46" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G167" s="46" t="s">
         <v>42</v>
@@ -13433,16 +13430,16 @@
       </c>
       <c r="C168" s="46"/>
       <c r="D168" s="46" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E168" s="46" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G168" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H168" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I168" s="46">
         <v>18</v>
@@ -13455,16 +13452,16 @@
       </c>
       <c r="C169" s="46"/>
       <c r="D169" s="46" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E169" s="46" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G169" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H169" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I169" s="46">
         <v>9</v>
@@ -13477,10 +13474,10 @@
       </c>
       <c r="C170" s="46"/>
       <c r="D170" s="46" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E170" s="46" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G170" s="46" t="s">
         <v>42</v>
@@ -13497,16 +13494,16 @@
       </c>
       <c r="C171" s="46"/>
       <c r="D171" s="46" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E171" s="46" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G171" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H171" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I171" s="46">
         <v>18</v>
@@ -13519,16 +13516,16 @@
       </c>
       <c r="C172" s="46"/>
       <c r="D172" s="46" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E172" s="46" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G172" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H172" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I172" s="46">
         <v>9</v>
@@ -13539,13 +13536,13 @@
         <v>1</v>
       </c>
       <c r="B173" s="71" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C173" s="71" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D173" s="71" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E173" s="71" t="s">
         <v>45</v>
@@ -13598,13 +13595,13 @@
         <v>1</v>
       </c>
       <c r="B175" s="71" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C175" s="71" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D175" s="71" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E175" s="71" t="s">
         <v>45</v>
@@ -13659,10 +13656,10 @@
       </c>
       <c r="C177" s="46"/>
       <c r="D177" s="46" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E177" s="46" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G177" s="46" t="s">
         <v>43</v>
@@ -13679,10 +13676,10 @@
       </c>
       <c r="C178" s="46"/>
       <c r="D178" s="46" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E178" s="46" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G178" s="46" t="s">
         <v>43</v>
@@ -13699,10 +13696,10 @@
       </c>
       <c r="C179" s="46"/>
       <c r="D179" s="46" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E179" s="46" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G179" s="46" t="s">
         <v>42</v>
@@ -13719,16 +13716,16 @@
       </c>
       <c r="C180" s="46"/>
       <c r="D180" s="46" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E180" s="46" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G180" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H180" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I180" s="46">
         <v>18</v>
@@ -13741,16 +13738,16 @@
       </c>
       <c r="C181" s="46"/>
       <c r="D181" s="46" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E181" s="46" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G181" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H181" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I181" s="46">
         <v>9</v>
@@ -13763,10 +13760,10 @@
       </c>
       <c r="C182" s="46"/>
       <c r="D182" s="46" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E182" s="46" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G182" s="46" t="s">
         <v>42</v>
@@ -13783,16 +13780,16 @@
       </c>
       <c r="C183" s="46"/>
       <c r="D183" s="46" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E183" s="46" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G183" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H183" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I183" s="46">
         <v>18</v>
@@ -13805,16 +13802,16 @@
       </c>
       <c r="C184" s="46"/>
       <c r="D184" s="46" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E184" s="46" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G184" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H184" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I184" s="46">
         <v>9</v>
@@ -13827,10 +13824,10 @@
       </c>
       <c r="C185" s="46"/>
       <c r="D185" s="46" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E185" s="46" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G185" s="46" t="s">
         <v>42</v>
@@ -13847,16 +13844,16 @@
       </c>
       <c r="C186" s="46"/>
       <c r="D186" s="46" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E186" s="46" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G186" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H186" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I186" s="46">
         <v>18</v>
@@ -13869,16 +13866,16 @@
       </c>
       <c r="C187" s="46"/>
       <c r="D187" s="46" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E187" s="46" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G187" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H187" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I187" s="46">
         <v>9</v>
@@ -13889,13 +13886,13 @@
         <v>1</v>
       </c>
       <c r="B188" s="71" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C188" s="71" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D188" s="71" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E188" s="71" t="s">
         <v>45</v>
@@ -13950,16 +13947,16 @@
       </c>
       <c r="C190" s="46"/>
       <c r="D190" s="46" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E190" s="46" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G190" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H190" s="46" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I190" s="46">
         <v>20</v>
@@ -13970,13 +13967,13 @@
         <v>1</v>
       </c>
       <c r="B191" s="71" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C191" s="71" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D191" s="71" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E191" s="71" t="s">
         <v>45</v>
@@ -14110,16 +14107,16 @@
         <v>1</v>
       </c>
       <c r="B196" s="71" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C196" s="71" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D196" s="71" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E196" s="71" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J196" s="72"/>
     </row>
@@ -14169,13 +14166,13 @@
         <v>1</v>
       </c>
       <c r="B198" s="71" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C198" s="71" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D198" s="71" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E198" s="71" t="s">
         <v>45</v>
@@ -14230,10 +14227,10 @@
       </c>
       <c r="C200" s="46"/>
       <c r="D200" s="46" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E200" s="46" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G200" s="46" t="s">
         <v>43</v>
@@ -14250,16 +14247,16 @@
       </c>
       <c r="C201" s="46"/>
       <c r="D201" s="46" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E201" s="46" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="G201" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H201" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I201" s="46">
         <v>9</v>
@@ -14272,16 +14269,16 @@
       </c>
       <c r="C202" s="46"/>
       <c r="D202" s="46" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E202" s="46" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="G202" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H202" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I202" s="46">
         <v>16</v>
@@ -14292,13 +14289,13 @@
         <v>1</v>
       </c>
       <c r="B203" s="71" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C203" s="71" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D203" s="71" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E203" s="71" t="s">
         <v>45</v>
@@ -14353,16 +14350,16 @@
       </c>
       <c r="C205" s="46"/>
       <c r="D205" s="46" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E205" s="46" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G205" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H205" s="46" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I205" s="46">
         <v>20</v>
@@ -14373,16 +14370,16 @@
         <v>1</v>
       </c>
       <c r="B206" s="71" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C206" s="71" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D206" s="71" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E206" s="71" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J206" s="72"/>
     </row>
@@ -14432,13 +14429,13 @@
         <v>1</v>
       </c>
       <c r="B208" s="71" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C208" s="71" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D208" s="71" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E208" s="71" t="s">
         <v>45</v>
@@ -14491,13 +14488,13 @@
         <v>1</v>
       </c>
       <c r="B210" s="71" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C210" s="71" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D210" s="71" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E210" s="71" t="s">
         <v>45</v>
@@ -14550,13 +14547,13 @@
         <v>1</v>
       </c>
       <c r="B212" s="71" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C212" s="71" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D212" s="71" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E212" s="71" t="s">
         <v>45</v>
@@ -14609,13 +14606,13 @@
         <v>1</v>
       </c>
       <c r="B214" s="71" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C214" s="71" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D214" s="71" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E214" s="71" t="s">
         <v>45</v>
@@ -14668,13 +14665,13 @@
         <v>1</v>
       </c>
       <c r="B216" s="71" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C216" s="71" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D216" s="71" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E216" s="71" t="s">
         <v>45</v>
@@ -14727,13 +14724,13 @@
         <v>1</v>
       </c>
       <c r="B218" s="71" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C218" s="71" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D218" s="71" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E218" s="71" t="s">
         <v>45</v>
@@ -14788,16 +14785,16 @@
       </c>
       <c r="C220" s="46"/>
       <c r="D220" s="46" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E220" s="46" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G220" s="46" t="s">
         <v>43</v>
       </c>
       <c r="H220" s="46" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I220" s="46">
         <v>15</v>
@@ -14808,16 +14805,16 @@
         <v>1</v>
       </c>
       <c r="B221" s="65" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C221" s="65" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D221" s="65" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E221" s="83" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I221" s="66"/>
       <c r="J221" s="66"/>
@@ -14827,16 +14824,16 @@
         <v>1</v>
       </c>
       <c r="B222" s="54" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C222" s="54" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D222" s="54" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E222" s="54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I222" s="49"/>
       <c r="J222" s="49"/>
@@ -15859,10 +15856,10 @@
     </row>
     <row r="21" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G21" s="64" t="b">
         <v>1</v>
@@ -15876,10 +15873,10 @@
     </row>
     <row r="22" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G22" s="64" t="b">
         <v>1</v>
@@ -15893,10 +15890,10 @@
     </row>
     <row r="23" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G23" s="64" t="b">
         <v>1</v>
@@ -15910,10 +15907,10 @@
     </row>
     <row r="24" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G24" s="64" t="b">
         <v>1</v>
@@ -15927,10 +15924,10 @@
     </row>
     <row r="25" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G25" s="64" t="b">
         <v>1</v>
@@ -15944,10 +15941,10 @@
     </row>
     <row r="26" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G26" s="64" t="b">
         <v>1</v>
@@ -15961,10 +15958,10 @@
     </row>
     <row r="27" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G27" s="64" t="b">
         <v>1</v>
@@ -15978,10 +15975,10 @@
     </row>
     <row r="28" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G28" s="64" t="b">
         <v>1</v>
@@ -15995,10 +15992,10 @@
     </row>
     <row r="29" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G29" s="64" t="b">
         <v>1</v>
@@ -16012,10 +16009,10 @@
     </row>
     <row r="30" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G30" s="64" t="b">
         <v>1</v>
@@ -16029,10 +16026,10 @@
     </row>
     <row r="31" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G31" s="64" t="b">
         <v>1</v>
@@ -16046,10 +16043,10 @@
     </row>
     <row r="32" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G32" s="64" t="b">
         <v>1</v>
@@ -16063,10 +16060,10 @@
     </row>
     <row r="33" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G33" s="64" t="b">
         <v>1</v>
@@ -16080,10 +16077,10 @@
     </row>
     <row r="34" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G34" s="64" t="b">
         <v>1</v>
@@ -16097,10 +16094,10 @@
     </row>
     <row r="35" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G35" s="64" t="b">
         <v>1</v>
@@ -16114,10 +16111,10 @@
     </row>
     <row r="36" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G36" s="64" t="b">
         <v>1</v>
@@ -16131,10 +16128,10 @@
     </row>
     <row r="37" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G37" s="64" t="b">
         <v>1</v>
@@ -16148,10 +16145,10 @@
     </row>
     <row r="38" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G38" s="64" t="b">
         <v>1</v>
@@ -16165,10 +16162,10 @@
     </row>
     <row r="39" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G39" s="64" t="b">
         <v>1</v>
@@ -16182,10 +16179,10 @@
     </row>
     <row r="40" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G40" s="64" t="b">
         <v>1</v>
@@ -16199,10 +16196,10 @@
     </row>
     <row r="41" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G41" s="64" t="b">
         <v>1</v>
@@ -16216,10 +16213,10 @@
     </row>
     <row r="42" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G42" s="64" t="b">
         <v>1</v>
@@ -16233,10 +16230,10 @@
     </row>
     <row r="43" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G43" s="64" t="b">
         <v>1</v>
@@ -16250,10 +16247,10 @@
     </row>
     <row r="44" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G44" s="64" t="b">
         <v>1</v>
@@ -16267,10 +16264,10 @@
     </row>
     <row r="45" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G45" s="64" t="b">
         <v>1</v>
@@ -16284,10 +16281,10 @@
     </row>
     <row r="46" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G46" s="64" t="b">
         <v>1</v>
@@ -16301,10 +16298,10 @@
     </row>
     <row r="47" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G47" s="64" t="b">
         <v>1</v>
@@ -16318,10 +16315,10 @@
     </row>
     <row r="48" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G48" s="64" t="b">
         <v>1</v>
@@ -16335,10 +16332,10 @@
     </row>
     <row r="49" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G49" s="64" t="b">
         <v>1</v>
@@ -16352,10 +16349,10 @@
     </row>
     <row r="50" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G50" s="64" t="b">
         <v>1</v>
@@ -16369,10 +16366,10 @@
     </row>
     <row r="51" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G51" s="64" t="b">
         <v>1</v>
@@ -16386,10 +16383,10 @@
     </row>
     <row r="52" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G52" s="64" t="b">
         <v>1</v>
@@ -16403,10 +16400,10 @@
     </row>
     <row r="53" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G53" s="64" t="b">
         <v>1</v>
@@ -16420,10 +16417,10 @@
     </row>
     <row r="54" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G54" s="64" t="b">
         <v>1</v>
@@ -16437,10 +16434,10 @@
     </row>
     <row r="55" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G55" s="64" t="b">
         <v>1</v>
@@ -16454,10 +16451,10 @@
     </row>
     <row r="56" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G56" s="64" t="b">
         <v>1</v>
@@ -16471,10 +16468,10 @@
     </row>
     <row r="57" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G57" s="64" t="b">
         <v>1</v>
@@ -16488,10 +16485,10 @@
     </row>
     <row r="58" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G58" s="64" t="b">
         <v>1</v>
@@ -16505,10 +16502,10 @@
     </row>
     <row r="59" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G59" s="64" t="b">
         <v>1</v>
@@ -16522,10 +16519,10 @@
     </row>
     <row r="60" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G60" s="64" t="b">
         <v>1</v>
@@ -16539,10 +16536,10 @@
     </row>
     <row r="61" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G61" s="64" t="b">
         <v>1</v>
@@ -16556,10 +16553,10 @@
     </row>
     <row r="62" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G62" s="64" t="b">
         <v>1</v>
@@ -16573,10 +16570,10 @@
     </row>
     <row r="63" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G63" s="64" t="b">
         <v>1</v>
@@ -16590,10 +16587,10 @@
     </row>
     <row r="64" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G64" s="64" t="b">
         <v>1</v>
@@ -16607,10 +16604,10 @@
     </row>
     <row r="65" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G65" s="64" t="b">
         <v>1</v>
@@ -16624,10 +16621,10 @@
     </row>
     <row r="66" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G66" s="64" t="b">
         <v>1</v>
@@ -16641,10 +16638,10 @@
     </row>
     <row r="67" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G67" s="64" t="b">
         <v>1</v>
@@ -16658,10 +16655,10 @@
     </row>
     <row r="68" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G68" s="64" t="b">
         <v>1</v>
@@ -16675,10 +16672,10 @@
     </row>
     <row r="69" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G69" s="64" t="b">
         <v>1</v>
@@ -16692,10 +16689,10 @@
     </row>
     <row r="70" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G70" s="64" t="b">
         <v>1</v>
@@ -16709,10 +16706,10 @@
     </row>
     <row r="71" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G71" s="64" t="b">
         <v>1</v>
@@ -16726,10 +16723,10 @@
     </row>
     <row r="72" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G72" s="64" t="b">
         <v>1</v>
@@ -16743,10 +16740,10 @@
     </row>
     <row r="73" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G73" s="64" t="b">
         <v>1</v>
@@ -16760,10 +16757,10 @@
     </row>
     <row r="74" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G74" s="64" t="b">
         <v>1</v>
@@ -16777,10 +16774,10 @@
     </row>
     <row r="75" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G75" s="64" t="b">
         <v>1</v>
@@ -16794,10 +16791,10 @@
     </row>
     <row r="76" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G76" s="64" t="b">
         <v>1</v>
@@ -16811,10 +16808,10 @@
     </row>
     <row r="77" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G77" s="64" t="b">
         <v>1</v>
@@ -16828,10 +16825,10 @@
     </row>
     <row r="78" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G78" s="64" t="b">
         <v>1</v>
@@ -16845,10 +16842,10 @@
     </row>
     <row r="79" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G79" s="64" t="b">
         <v>1</v>
@@ -16862,10 +16859,10 @@
     </row>
     <row r="80" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G80" s="64" t="b">
         <v>1</v>
@@ -16879,10 +16876,10 @@
     </row>
     <row r="81" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G81" s="64" t="b">
         <v>1</v>
@@ -16896,10 +16893,10 @@
     </row>
     <row r="82" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G82" s="64" t="b">
         <v>1</v>
@@ -16913,10 +16910,10 @@
     </row>
     <row r="83" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G83" s="64" t="b">
         <v>1</v>
@@ -16930,10 +16927,10 @@
     </row>
     <row r="84" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G84" s="64" t="b">
         <v>1</v>
@@ -16947,10 +16944,10 @@
     </row>
     <row r="85" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G85" s="64" t="b">
         <v>1</v>
@@ -16964,10 +16961,10 @@
     </row>
     <row r="86" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G86" s="64" t="b">
         <v>1</v>
@@ -16981,10 +16978,10 @@
     </row>
     <row r="87" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G87" s="64" t="b">
         <v>1</v>
@@ -16998,10 +16995,10 @@
     </row>
     <row r="88" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G88" s="64" t="b">
         <v>1</v>
@@ -17015,10 +17012,10 @@
     </row>
     <row r="89" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G89" s="64" t="b">
         <v>1</v>
@@ -17032,10 +17029,10 @@
     </row>
     <row r="90" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G90" s="64" t="b">
         <v>1</v>
@@ -17049,10 +17046,10 @@
     </row>
     <row r="91" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G91" s="64" t="b">
         <v>1</v>
@@ -17066,10 +17063,10 @@
     </row>
     <row r="92" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G92" s="64" t="b">
         <v>1</v>
@@ -17083,10 +17080,10 @@
     </row>
     <row r="93" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G93" s="64" t="b">
         <v>1</v>
@@ -17100,10 +17097,10 @@
     </row>
     <row r="94" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G94" s="64" t="b">
         <v>1</v>
@@ -17117,10 +17114,10 @@
     </row>
     <row r="95" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G95" s="64" t="b">
         <v>1</v>
@@ -17134,10 +17131,10 @@
     </row>
     <row r="96" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G96" s="64" t="b">
         <v>1</v>
@@ -17151,10 +17148,10 @@
     </row>
     <row r="97" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G97" s="64" t="b">
         <v>1</v>
@@ -17168,10 +17165,10 @@
     </row>
     <row r="98" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G98" s="64" t="b">
         <v>1</v>
@@ -17185,10 +17182,10 @@
     </row>
     <row r="99" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G99" s="64" t="b">
         <v>1</v>
@@ -17202,10 +17199,10 @@
     </row>
     <row r="100" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G100" s="64" t="b">
         <v>1</v>
@@ -17219,10 +17216,10 @@
     </row>
     <row r="101" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G101" s="64" t="b">
         <v>1</v>
@@ -17236,10 +17233,10 @@
     </row>
     <row r="102" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G102" s="64" t="b">
         <v>1</v>
@@ -17253,10 +17250,10 @@
     </row>
     <row r="103" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G103" s="64" t="b">
         <v>1</v>
@@ -17270,10 +17267,10 @@
     </row>
     <row r="104" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G104" s="64" t="b">
         <v>1</v>
@@ -17287,10 +17284,10 @@
     </row>
     <row r="105" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G105" s="64" t="b">
         <v>1</v>
@@ -17304,10 +17301,10 @@
     </row>
     <row r="106" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G106" s="64" t="b">
         <v>1</v>
@@ -17321,10 +17318,10 @@
     </row>
     <row r="107" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G107" s="64" t="b">
         <v>1</v>
@@ -17338,10 +17335,10 @@
     </row>
     <row r="108" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G108" s="64" t="b">
         <v>1</v>
@@ -17355,10 +17352,10 @@
     </row>
     <row r="109" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G109" s="64" t="b">
         <v>1</v>
@@ -17372,10 +17369,10 @@
     </row>
     <row r="110" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G110" s="64" t="b">
         <v>1</v>
@@ -17389,10 +17386,10 @@
     </row>
     <row r="111" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G111" s="64" t="b">
         <v>1</v>
@@ -17406,10 +17403,10 @@
     </row>
     <row r="112" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G112" s="64" t="b">
         <v>1</v>
@@ -17423,10 +17420,10 @@
     </row>
     <row r="113" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G113" s="64" t="b">
         <v>1</v>
@@ -17440,10 +17437,10 @@
     </row>
     <row r="114" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G114" s="64" t="b">
         <v>1</v>
@@ -17457,10 +17454,10 @@
     </row>
     <row r="115" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G115" s="64" t="b">
         <v>1</v>
@@ -17474,10 +17471,10 @@
     </row>
     <row r="116" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G116" s="64" t="b">
         <v>1</v>
@@ -17491,10 +17488,10 @@
     </row>
     <row r="117" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G117" s="64" t="b">
         <v>1</v>
@@ -17508,10 +17505,10 @@
     </row>
     <row r="118" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G118" s="64" t="b">
         <v>1</v>
@@ -17525,10 +17522,10 @@
     </row>
     <row r="119" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G119" s="64" t="b">
         <v>1</v>
@@ -17542,10 +17539,10 @@
     </row>
     <row r="120" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G120" s="64" t="b">
         <v>1</v>
@@ -17559,10 +17556,10 @@
     </row>
     <row r="121" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G121" s="64" t="b">
         <v>1</v>
@@ -17576,10 +17573,10 @@
     </row>
     <row r="122" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G122" s="64" t="b">
         <v>1</v>
@@ -17593,10 +17590,10 @@
     </row>
     <row r="123" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G123" s="64" t="b">
         <v>1</v>
@@ -17610,10 +17607,10 @@
     </row>
     <row r="124" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G124" s="64" t="b">
         <v>1</v>
@@ -17627,10 +17624,10 @@
     </row>
     <row r="125" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G125" s="64" t="b">
         <v>1</v>
@@ -17644,10 +17641,10 @@
     </row>
     <row r="126" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G126" s="64" t="b">
         <v>1</v>
@@ -17661,10 +17658,10 @@
     </row>
     <row r="127" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G127" s="64" t="b">
         <v>1</v>
@@ -17678,10 +17675,10 @@
     </row>
     <row r="128" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G128" s="64" t="b">
         <v>1</v>
@@ -17695,10 +17692,10 @@
     </row>
     <row r="129" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D129" s="18" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G129" s="64" t="b">
         <v>1</v>
@@ -17712,10 +17709,10 @@
     </row>
     <row r="130" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G130" s="64" t="b">
         <v>1</v>
@@ -17729,10 +17726,10 @@
     </row>
     <row r="131" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G131" s="64" t="b">
         <v>1</v>
@@ -17746,10 +17743,10 @@
     </row>
     <row r="132" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G132" s="64" t="b">
         <v>1</v>
@@ -17763,10 +17760,10 @@
     </row>
     <row r="133" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G133" s="64" t="b">
         <v>1</v>
@@ -17780,10 +17777,10 @@
     </row>
     <row r="134" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="18" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D134" s="18" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G134" s="64" t="b">
         <v>1</v>
@@ -17797,10 +17794,10 @@
     </row>
     <row r="135" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D135" s="18" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G135" s="64" t="b">
         <v>1</v>
@@ -17814,10 +17811,10 @@
     </row>
     <row r="136" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="18" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D136" s="18" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G136" s="64" t="b">
         <v>1</v>
@@ -17831,10 +17828,10 @@
     </row>
     <row r="137" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="18" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D137" s="18" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G137" s="64" t="b">
         <v>1</v>
@@ -17848,10 +17845,10 @@
     </row>
     <row r="138" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="18" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G138" s="64" t="b">
         <v>1</v>
@@ -17865,10 +17862,10 @@
     </row>
     <row r="139" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="18" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G139" s="64" t="b">
         <v>1</v>
@@ -17882,10 +17879,10 @@
     </row>
     <row r="140" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G140" s="64" t="b">
         <v>1</v>
@@ -17899,10 +17896,10 @@
     </row>
     <row r="141" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D141" s="18" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G141" s="64" t="b">
         <v>1</v>
@@ -17916,10 +17913,10 @@
     </row>
     <row r="142" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D142" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G142" s="64" t="b">
         <v>1</v>
@@ -17933,10 +17930,10 @@
     </row>
     <row r="143" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="18" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D143" s="18" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G143" s="64" t="b">
         <v>1</v>
@@ -17950,10 +17947,10 @@
     </row>
     <row r="144" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G144" s="64" t="b">
         <v>1</v>
@@ -17967,10 +17964,10 @@
     </row>
     <row r="145" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="18" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D145" s="18" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G145" s="64" t="b">
         <v>1</v>
@@ -17984,10 +17981,10 @@
     </row>
     <row r="146" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D146" s="18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G146" s="64" t="b">
         <v>1</v>
@@ -18001,10 +17998,10 @@
     </row>
     <row r="147" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D147" s="18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G147" s="64" t="b">
         <v>1</v>
@@ -18018,10 +18015,10 @@
     </row>
     <row r="148" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D148" s="18" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G148" s="64" t="b">
         <v>1</v>
@@ -18035,10 +18032,10 @@
     </row>
     <row r="149" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D149" s="18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G149" s="64" t="b">
         <v>1</v>
@@ -18052,10 +18049,10 @@
     </row>
     <row r="150" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D150" s="18" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G150" s="64" t="b">
         <v>1</v>
@@ -18069,10 +18066,10 @@
     </row>
     <row r="151" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D151" s="18" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G151" s="64" t="b">
         <v>1</v>
@@ -18086,10 +18083,10 @@
     </row>
     <row r="152" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D152" s="18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G152" s="64" t="b">
         <v>1</v>
@@ -18103,10 +18100,10 @@
     </row>
     <row r="153" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="18" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D153" s="18" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G153" s="64" t="b">
         <v>1</v>
@@ -18120,10 +18117,10 @@
     </row>
     <row r="154" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="18" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D154" s="18" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G154" s="64" t="b">
         <v>1</v>
@@ -18137,10 +18134,10 @@
     </row>
     <row r="155" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="18" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D155" s="18" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G155" s="64" t="b">
         <v>1</v>
@@ -18154,10 +18151,10 @@
     </row>
     <row r="156" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D156" s="18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G156" s="64" t="b">
         <v>1</v>
@@ -18171,10 +18168,10 @@
     </row>
     <row r="157" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="18" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G157" s="64" t="b">
         <v>1</v>
@@ -18188,10 +18185,10 @@
     </row>
     <row r="158" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D158" s="18" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G158" s="64" t="b">
         <v>1</v>
@@ -18205,10 +18202,10 @@
     </row>
     <row r="159" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="18" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D159" s="18" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G159" s="64" t="b">
         <v>1</v>
@@ -18222,10 +18219,10 @@
     </row>
     <row r="160" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="18" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G160" s="64" t="b">
         <v>1</v>
@@ -18239,10 +18236,10 @@
     </row>
     <row r="161" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="18" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G161" s="64" t="b">
         <v>1</v>
@@ -18256,10 +18253,10 @@
     </row>
     <row r="162" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="18" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D162" s="18" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G162" s="64" t="b">
         <v>1</v>
@@ -18273,10 +18270,10 @@
     </row>
     <row r="163" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="18" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D163" s="18" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G163" s="64" t="b">
         <v>1</v>
@@ -18290,10 +18287,10 @@
     </row>
     <row r="164" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="18" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D164" s="18" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G164" s="64" t="b">
         <v>1</v>
@@ -18307,10 +18304,10 @@
     </row>
     <row r="165" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="18" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D165" s="18" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G165" s="64" t="b">
         <v>1</v>
@@ -18324,10 +18321,10 @@
     </row>
     <row r="166" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="18" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D166" s="18" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G166" s="64" t="b">
         <v>1</v>
@@ -18341,10 +18338,10 @@
     </row>
     <row r="167" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D167" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G167" s="64" t="b">
         <v>1</v>
@@ -18358,10 +18355,10 @@
     </row>
     <row r="168" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D168" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G168" s="64" t="b">
         <v>1</v>
@@ -18375,10 +18372,10 @@
     </row>
     <row r="169" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G169" s="64" t="b">
         <v>1</v>
@@ -18392,10 +18389,10 @@
     </row>
     <row r="170" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="18" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D170" s="18" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G170" s="64" t="b">
         <v>1</v>
@@ -18409,10 +18406,10 @@
     </row>
     <row r="171" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G171" s="64" t="b">
         <v>1</v>
@@ -18426,10 +18423,10 @@
     </row>
     <row r="172" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G172" s="64" t="b">
         <v>1</v>
@@ -18443,10 +18440,10 @@
     </row>
     <row r="173" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G173" s="64" t="b">
         <v>1</v>
@@ -18460,10 +18457,10 @@
     </row>
     <row r="174" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D174" s="18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G174" s="64" t="b">
         <v>1</v>
@@ -18477,10 +18474,10 @@
     </row>
     <row r="175" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D175" s="18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G175" s="64" t="b">
         <v>1</v>
@@ -18494,10 +18491,10 @@
     </row>
     <row r="176" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="18" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D176" s="18" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G176" s="64" t="b">
         <v>1</v>
@@ -18511,10 +18508,10 @@
     </row>
     <row r="177" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="18" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D177" s="18" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G177" s="64" t="b">
         <v>1</v>
@@ -18528,10 +18525,10 @@
     </row>
     <row r="178" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D178" s="18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G178" s="64" t="b">
         <v>1</v>
@@ -18545,10 +18542,10 @@
     </row>
     <row r="179" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="18" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D179" s="18" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G179" s="64" t="b">
         <v>1</v>
@@ -18562,10 +18559,10 @@
     </row>
     <row r="180" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="18" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D180" s="18" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G180" s="64" t="b">
         <v>1</v>
@@ -18579,10 +18576,10 @@
     </row>
     <row r="181" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="18" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D181" s="18" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G181" s="64" t="b">
         <v>1</v>
@@ -18596,10 +18593,10 @@
     </row>
     <row r="182" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="18" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D182" s="18" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G182" s="64" t="b">
         <v>1</v>
@@ -18613,10 +18610,10 @@
     </row>
     <row r="183" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="18" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D183" s="18" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G183" s="64" t="b">
         <v>1</v>
@@ -18630,10 +18627,10 @@
     </row>
     <row r="184" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="18" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D184" s="18" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G184" s="64" t="b">
         <v>1</v>
@@ -18647,10 +18644,10 @@
     </row>
     <row r="185" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="18" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D185" s="18" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G185" s="64" t="b">
         <v>1</v>
@@ -18664,10 +18661,10 @@
     </row>
     <row r="186" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D186" s="18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G186" s="64" t="b">
         <v>1</v>
@@ -18681,10 +18678,10 @@
     </row>
     <row r="187" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="18" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D187" s="18" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G187" s="64" t="b">
         <v>1</v>
@@ -18698,10 +18695,10 @@
     </row>
     <row r="188" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D188" s="18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G188" s="64" t="b">
         <v>1</v>
@@ -18715,10 +18712,10 @@
     </row>
     <row r="189" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D189" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G189" s="64" t="b">
         <v>1</v>
@@ -18732,10 +18729,10 @@
     </row>
     <row r="190" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D190" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G190" s="64" t="b">
         <v>1</v>
@@ -18749,10 +18746,10 @@
     </row>
     <row r="191" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D191" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G191" s="64" t="b">
         <v>1</v>
@@ -18766,10 +18763,10 @@
     </row>
     <row r="192" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="18" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D192" s="18" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G192" s="64" t="b">
         <v>1</v>
@@ -18783,10 +18780,10 @@
     </row>
     <row r="193" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D193" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G193" s="64" t="b">
         <v>1</v>
@@ -18800,10 +18797,10 @@
     </row>
     <row r="194" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D194" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G194" s="64" t="b">
         <v>1</v>
@@ -18817,10 +18814,10 @@
     </row>
     <row r="195" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="18" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D195" s="18" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G195" s="64" t="b">
         <v>1</v>
@@ -18834,10 +18831,10 @@
     </row>
     <row r="196" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D196" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G196" s="64" t="b">
         <v>1</v>
@@ -18851,10 +18848,10 @@
     </row>
     <row r="197" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D197" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G197" s="64" t="b">
         <v>1</v>
@@ -18868,14 +18865,14 @@
     </row>
     <row r="198" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="73" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B198" s="73" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C198" s="73"/>
       <c r="D198" s="73" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E198" s="73"/>
       <c r="F198" s="73" t="s">
@@ -18897,13 +18894,13 @@
     </row>
     <row r="199" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F199" s="74" t="s">
         <v>42</v>
@@ -18920,13 +18917,13 @@
     </row>
     <row r="200" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F200" s="74" t="s">
         <v>42</v>
@@ -18943,13 +18940,13 @@
     </row>
     <row r="201" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F201" s="74" t="s">
         <v>42</v>
@@ -18966,13 +18963,13 @@
     </row>
     <row r="202" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F202" s="74" t="s">
         <v>42</v>
@@ -18989,13 +18986,13 @@
     </row>
     <row r="203" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F203" s="74" t="s">
         <v>42</v>
@@ -19012,13 +19009,13 @@
     </row>
     <row r="204" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F204" s="74" t="s">
         <v>42</v>
@@ -19035,13 +19032,13 @@
     </row>
     <row r="205" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F205" s="74" t="s">
         <v>42</v>
@@ -19058,13 +19055,13 @@
     </row>
     <row r="206" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F206" s="74" t="s">
         <v>42</v>
@@ -19081,13 +19078,13 @@
     </row>
     <row r="207" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F207" s="74" t="s">
         <v>42</v>
@@ -19104,13 +19101,13 @@
     </row>
     <row r="208" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F208" s="74" t="s">
         <v>42</v>
@@ -19127,13 +19124,13 @@
     </row>
     <row r="209" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F209" s="74" t="s">
         <v>42</v>
@@ -19150,13 +19147,13 @@
     </row>
     <row r="210" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F210" s="74" t="s">
         <v>42</v>
@@ -19173,13 +19170,13 @@
     </row>
     <row r="211" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F211" s="74" t="s">
         <v>42</v>
@@ -19196,13 +19193,13 @@
     </row>
     <row r="212" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="67" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B212" s="67" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D212" s="67" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F212" s="75" t="s">
         <v>42</v>
@@ -19219,13 +19216,13 @@
     </row>
     <row r="213" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="67" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B213" s="67" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D213" s="67" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F213" s="75" t="s">
         <v>42</v>
@@ -19242,13 +19239,13 @@
     </row>
     <row r="214" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="67" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B214" s="67" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D214" s="67" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F214" s="75" t="s">
         <v>42</v>
@@ -19265,13 +19262,13 @@
     </row>
     <row r="215" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="67" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B215" s="67" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D215" s="67" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F215" s="75" t="s">
         <v>42</v>
@@ -19288,13 +19285,13 @@
     </row>
     <row r="216" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="67" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B216" s="67" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D216" s="67" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F216" s="75" t="s">
         <v>42</v>
@@ -19311,13 +19308,13 @@
     </row>
     <row r="217" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="67" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B217" s="67" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D217" s="67" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F217" s="75" t="s">
         <v>42</v>
@@ -19334,13 +19331,13 @@
     </row>
     <row r="218" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="67" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B218" s="67" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D218" s="67" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F218" s="75" t="s">
         <v>42</v>
@@ -19357,13 +19354,13 @@
     </row>
     <row r="219" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="67" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B219" s="67" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D219" s="67" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F219" s="75" t="s">
         <v>42</v>
@@ -19380,13 +19377,13 @@
     </row>
     <row r="220" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="67" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B220" s="67" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D220" s="67" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F220" s="75" t="s">
         <v>42</v>
@@ -19403,13 +19400,13 @@
     </row>
     <row r="221" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="67" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B221" s="67" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D221" s="67" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="F221" s="75" t="s">
         <v>42</v>
@@ -19426,13 +19423,13 @@
     </row>
     <row r="222" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="67" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B222" s="67" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D222" s="67" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F222" s="75" t="s">
         <v>42</v>
@@ -19449,13 +19446,13 @@
     </row>
     <row r="223" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="69" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B223" s="69" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D223" s="69" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F223" s="76" t="s">
         <v>42</v>
@@ -19472,13 +19469,13 @@
     </row>
     <row r="224" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="69" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B224" s="69" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D224" s="69" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F224" s="76" t="s">
         <v>42</v>
@@ -19495,13 +19492,13 @@
     </row>
     <row r="225" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="69" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B225" s="69" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D225" s="69" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F225" s="76" t="s">
         <v>42</v>
@@ -19518,13 +19515,13 @@
     </row>
     <row r="226" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="69" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B226" s="69" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D226" s="69" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F226" s="76" t="s">
         <v>42</v>
@@ -19541,13 +19538,13 @@
     </row>
     <row r="227" spans="1:9" s="69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="69" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B227" s="69" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D227" s="69" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F227" s="76" t="s">
         <v>42</v>
@@ -19564,13 +19561,13 @@
     </row>
     <row r="228" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="69" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B228" s="69" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D228" s="69" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F228" s="76" t="s">
         <v>42</v>
@@ -19587,13 +19584,13 @@
     </row>
     <row r="229" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="69" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B229" s="69" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D229" s="69" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F229" s="76" t="s">
         <v>42</v>
@@ -19610,13 +19607,13 @@
     </row>
     <row r="230" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="69" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B230" s="69" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D230" s="69" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F230" s="76" t="s">
         <v>42</v>
@@ -19633,13 +19630,13 @@
     </row>
     <row r="231" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="69" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B231" s="69" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D231" s="69" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F231" s="76" t="s">
         <v>42</v>
@@ -19656,13 +19653,13 @@
     </row>
     <row r="232" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="69" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B232" s="69" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D232" s="69" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F232" s="76" t="s">
         <v>42</v>
@@ -19679,13 +19676,13 @@
     </row>
     <row r="233" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="69" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B233" s="69" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D233" s="69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F233" s="76" t="s">
         <v>42</v>
@@ -19702,13 +19699,13 @@
     </row>
     <row r="234" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="69" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B234" s="69" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D234" s="69" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F234" s="76" t="s">
         <v>42</v>
@@ -19725,13 +19722,13 @@
     </row>
     <row r="235" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="69" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B235" s="69" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D235" s="69" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F235" s="76" t="s">
         <v>42</v>
@@ -19748,13 +19745,13 @@
     </row>
     <row r="236" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="69" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B236" s="69" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D236" s="69" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F236" s="76" t="s">
         <v>42</v>
@@ -19771,13 +19768,13 @@
     </row>
     <row r="237" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="69" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B237" s="69" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D237" s="69" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F237" s="76" t="s">
         <v>42</v>
@@ -19794,13 +19791,13 @@
     </row>
     <row r="238" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="71" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B238" s="71" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D238" s="71" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F238" s="77" t="s">
         <v>42</v>
@@ -19817,13 +19814,13 @@
     </row>
     <row r="239" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="71" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B239" s="71" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D239" s="71" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F239" s="77" t="s">
         <v>42</v>
@@ -19840,13 +19837,13 @@
     </row>
     <row r="240" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="71" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B240" s="71" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D240" s="71" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F240" s="77" t="s">
         <v>42</v>
@@ -19863,13 +19860,13 @@
     </row>
     <row r="241" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="71" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B241" s="71" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D241" s="71" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F241" s="77" t="s">
         <v>42</v>
@@ -19886,13 +19883,13 @@
     </row>
     <row r="242" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="71" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B242" s="71" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D242" s="71" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F242" s="77" t="s">
         <v>42</v>
@@ -19909,13 +19906,13 @@
     </row>
     <row r="243" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="71" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B243" s="71" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D243" s="71" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F243" s="77" t="s">
         <v>42</v>
@@ -19932,13 +19929,13 @@
     </row>
     <row r="244" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="71" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B244" s="71" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D244" s="71" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F244" s="77" t="s">
         <v>42</v>
@@ -19955,13 +19952,13 @@
     </row>
     <row r="245" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="71" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B245" s="71" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D245" s="71" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F245" s="77" t="s">
         <v>42</v>
@@ -19978,13 +19975,13 @@
     </row>
     <row r="246" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="71" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B246" s="71" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D246" s="71" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="F246" s="77" t="s">
         <v>42</v>
@@ -20001,13 +19998,13 @@
     </row>
     <row r="247" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="71" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B247" s="71" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D247" s="71" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="F247" s="77" t="s">
         <v>42</v>
@@ -20024,13 +20021,13 @@
     </row>
     <row r="248" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="71" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B248" s="71" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D248" s="71" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F248" s="77" t="s">
         <v>42</v>
@@ -20047,13 +20044,13 @@
     </row>
     <row r="249" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="71" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B249" s="71" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D249" s="71" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F249" s="77" t="s">
         <v>42</v>
@@ -20070,13 +20067,13 @@
     </row>
     <row r="250" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="71" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B250" s="71" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D250" s="71" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="F250" s="77" t="s">
         <v>42</v>
@@ -20093,13 +20090,13 @@
     </row>
     <row r="251" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="71" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B251" s="71" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D251" s="71" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F251" s="77" t="s">
         <v>42</v>
@@ -20116,13 +20113,13 @@
     </row>
     <row r="252" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="71" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B252" s="71" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D252" s="71" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F252" s="77" t="s">
         <v>42</v>
@@ -20139,13 +20136,13 @@
     </row>
     <row r="253" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="71" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B253" s="71" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D253" s="71" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F253" s="77" t="s">
         <v>42</v>
@@ -20162,13 +20159,13 @@
     </row>
     <row r="254" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="71" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B254" s="71" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D254" s="71" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="F254" s="77" t="s">
         <v>42</v>
@@ -20185,13 +20182,13 @@
     </row>
     <row r="255" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="71" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B255" s="71" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D255" s="71" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="F255" s="77" t="s">
         <v>42</v>
@@ -20208,13 +20205,13 @@
     </row>
     <row r="256" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="71" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B256" s="71" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D256" s="71" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F256" s="77" t="s">
         <v>42</v>
@@ -20231,13 +20228,13 @@
     </row>
     <row r="257" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="71" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B257" s="71" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D257" s="71" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="F257" s="77" t="s">
         <v>42</v>
@@ -20254,13 +20251,13 @@
     </row>
     <row r="258" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="71" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B258" s="71" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D258" s="71" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="F258" s="77" t="s">
         <v>42</v>
@@ -20277,16 +20274,16 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="29" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B259" s="29" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D259" s="29" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="F259" s="29" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="G259" s="82" t="b">
         <v>1</v>
@@ -20300,16 +20297,16 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="29" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B260" s="29" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D260" s="29" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F260" s="29" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G260" s="82" t="b">
         <v>1</v>
@@ -20323,16 +20320,16 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="29" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B261" s="29" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D261" s="29" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="F261" s="29" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="G261" s="82" t="b">
         <v>1</v>
@@ -20346,16 +20343,16 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="29" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B262" s="29" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D262" s="29" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="F262" s="29" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="G262" s="82" t="b">
         <v>1</v>
@@ -20369,16 +20366,16 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="29" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B263" s="29" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D263" s="29" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="F263" s="29" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G263" s="82" t="b">
         <v>1</v>
@@ -20392,16 +20389,16 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="29" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B264" s="29" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D264" s="29" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="F264" s="29" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G264" s="82" t="b">
         <v>1</v>
@@ -20415,16 +20412,16 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="29" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B265" s="29" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D265" s="29" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="F265" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G265" s="82" t="b">
         <v>1</v>
@@ -20438,16 +20435,16 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="29" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B266" s="29" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D266" s="29" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="F266" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G266" s="82" t="b">
         <v>1</v>
@@ -20461,16 +20458,16 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="29" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B267" s="29" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D267" s="29" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F267" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G267" s="82" t="b">
         <v>1</v>
@@ -20484,16 +20481,16 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="29" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B268" s="29" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D268" s="29" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="F268" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G268" s="82" t="b">
         <v>1</v>
@@ -20507,16 +20504,16 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="29" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B269" s="29" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D269" s="29" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F269" s="29" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="G269" s="82" t="b">
         <v>1</v>
@@ -20530,16 +20527,16 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="29" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B270" s="29" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D270" s="29" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="F270" s="29" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="G270" s="82" t="b">
         <v>1</v>
@@ -20553,16 +20550,16 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="29" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B271" s="29" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D271" s="29" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="F271" s="29" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G271" s="82" t="b">
         <v>1</v>
@@ -20576,16 +20573,16 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="29" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B272" s="29" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D272" s="29" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="F272" s="29" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="G272" s="82" t="b">
         <v>1</v>
@@ -20599,16 +20596,16 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="29" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B273" s="29" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D273" s="29" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F273" s="29" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="G273" s="82" t="b">
         <v>1</v>
@@ -20622,16 +20619,16 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="29" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B274" s="29" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D274" s="29" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="F274" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G274" s="82" t="b">
         <v>1</v>
@@ -20645,16 +20642,16 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="29" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B275" s="29" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D275" s="29" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="F275" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G275" s="82" t="b">
         <v>1</v>
@@ -20668,16 +20665,16 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="29" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B276" s="29" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D276" s="29" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="F276" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G276" s="82" t="b">
         <v>1</v>
@@ -20691,16 +20688,16 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="29" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B277" s="29" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D277" s="29" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="F277" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G277" s="82" t="b">
         <v>1</v>
@@ -20714,16 +20711,16 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="29" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B278" s="29" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D278" s="29" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="F278" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G278" s="82" t="b">
         <v>1</v>
@@ -20737,16 +20734,16 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="29" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B279" s="29" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D279" s="29" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F279" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G279" s="82" t="b">
         <v>1</v>
@@ -20760,16 +20757,16 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="29" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B280" s="29" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D280" s="29" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F280" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G280" s="82" t="b">
         <v>1</v>
@@ -20783,16 +20780,16 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="29" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B281" s="29" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D281" s="29" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F281" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G281" s="82" t="b">
         <v>1</v>
@@ -20806,16 +20803,16 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="29" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B282" s="29" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D282" s="29" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F282" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G282" s="82" t="b">
         <v>1</v>
@@ -20829,16 +20826,16 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="29" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B283" s="29" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D283" s="29" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F283" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G283" s="82" t="b">
         <v>1</v>
@@ -20852,16 +20849,16 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="29" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B284" s="29" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D284" s="29" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="F284" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G284" s="82" t="b">
         <v>1</v>
@@ -20875,16 +20872,16 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="29" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B285" s="29" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D285" s="29" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F285" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G285" s="82" t="b">
         <v>1</v>
@@ -20898,16 +20895,16 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="29" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B286" s="29" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D286" s="29" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F286" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G286" s="82" t="b">
         <v>1</v>
@@ -20921,16 +20918,16 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="29" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B287" s="29" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D287" s="29" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="F287" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G287" s="82" t="b">
         <v>1</v>
@@ -20944,16 +20941,16 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="29" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B288" s="29" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D288" s="29" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="F288" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G288" s="82" t="b">
         <v>1</v>
@@ -20967,16 +20964,16 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="29" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B289" s="29" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D289" s="29" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F289" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G289" s="82" t="b">
         <v>1</v>
@@ -20990,16 +20987,16 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="29" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B290" s="29" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D290" s="29" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="F290" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G290" s="82" t="b">
         <v>1</v>
@@ -21013,16 +21010,16 @@
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="29" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B291" s="29" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D291" s="29" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F291" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G291" s="82" t="b">
         <v>1</v>
@@ -21036,16 +21033,16 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="29" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B292" s="29" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D292" s="29" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="F292" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G292" s="82" t="b">
         <v>1</v>
@@ -21059,16 +21056,16 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="29" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B293" s="29" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D293" s="29" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="F293" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G293" s="82" t="b">
         <v>1</v>
@@ -21082,16 +21079,16 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="29" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B294" s="29" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D294" s="29" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="F294" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G294" s="82" t="b">
         <v>1</v>
@@ -21105,16 +21102,16 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="29" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B295" s="29" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D295" s="29" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="F295" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G295" s="82" t="b">
         <v>1</v>
@@ -21128,16 +21125,16 @@
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="29" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B296" s="29" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D296" s="29" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="F296" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G296" s="82" t="b">
         <v>1</v>
@@ -21151,16 +21148,16 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="29" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B297" s="29" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D297" s="29" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="F297" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G297" s="82" t="b">
         <v>1</v>
@@ -21174,16 +21171,16 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="29" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B298" s="29" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D298" s="29" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="F298" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G298" s="82" t="b">
         <v>1</v>
@@ -21197,16 +21194,16 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="29" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B299" s="29" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D299" s="29" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="F299" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G299" s="82" t="b">
         <v>1</v>
@@ -21220,16 +21217,16 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="29" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B300" s="29" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D300" s="29" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="F300" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G300" s="82" t="b">
         <v>1</v>
@@ -21243,16 +21240,16 @@
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="29" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B301" s="29" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D301" s="29" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="F301" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G301" s="82" t="b">
         <v>1</v>
@@ -21266,16 +21263,16 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="29" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B302" s="29" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D302" s="29" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="F302" s="29" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="G302" s="82" t="b">
         <v>1</v>
@@ -21289,16 +21286,16 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="29" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B303" s="29" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D303" s="29" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F303" s="29" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="G303" s="82" t="b">
         <v>1</v>
@@ -21312,16 +21309,16 @@
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="29" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B304" s="29" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D304" s="29" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="F304" s="29" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="G304" s="82" t="b">
         <v>1</v>
@@ -21335,16 +21332,16 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B305" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D305" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="F305" s="29" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G305" s="82" t="b">
         <v>1</v>
@@ -21358,16 +21355,16 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="29" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B306" s="29" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D306" s="29" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="F306" s="29" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="G306" s="82" t="b">
         <v>1</v>
@@ -21381,16 +21378,16 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B307" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D307" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F307" s="29" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G307" s="82" t="b">
         <v>1</v>
@@ -21404,16 +21401,16 @@
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="29" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B308" s="29" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D308" s="29" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="F308" s="29" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G308" s="82" t="b">
         <v>1</v>
@@ -21427,16 +21424,16 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="29" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B309" s="29" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D309" s="29" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="F309" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G309" s="82" t="b">
         <v>1</v>
@@ -21450,16 +21447,16 @@
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="29" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B310" s="29" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D310" s="29" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="F310" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G310" s="82" t="b">
         <v>1</v>
@@ -21473,16 +21470,16 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="29" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B311" s="29" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D311" s="29" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F311" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G311" s="82" t="b">
         <v>1</v>
@@ -21496,16 +21493,16 @@
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="29" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B312" s="29" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D312" s="29" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="F312" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G312" s="82" t="b">
         <v>1</v>
@@ -21519,16 +21516,16 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="29" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B313" s="29" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D313" s="29" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="F313" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G313" s="82" t="b">
         <v>1</v>
@@ -21542,16 +21539,16 @@
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="29" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B314" s="29" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D314" s="29" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="F314" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G314" s="82" t="b">
         <v>1</v>
@@ -21565,16 +21562,16 @@
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="29" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B315" s="29" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D315" s="29" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="F315" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G315" s="82" t="b">
         <v>1</v>
@@ -21588,16 +21585,16 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="29" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B316" s="29" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D316" s="29" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="F316" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G316" s="82" t="b">
         <v>1</v>
@@ -21611,16 +21608,16 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="29" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B317" s="29" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D317" s="29" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F317" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G317" s="82" t="b">
         <v>1</v>
@@ -21634,16 +21631,16 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="29" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B318" s="29" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D318" s="29" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="F318" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G318" s="82" t="b">
         <v>1</v>
@@ -21657,16 +21654,16 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="29" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B319" s="29" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D319" s="29" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="F319" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G319" s="82" t="b">
         <v>1</v>
@@ -21680,16 +21677,16 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="29" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B320" s="29" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D320" s="29" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="F320" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G320" s="82" t="b">
         <v>1</v>
@@ -21703,16 +21700,16 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="29" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B321" s="29" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D321" s="29" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="F321" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G321" s="82" t="b">
         <v>1</v>
@@ -21726,16 +21723,16 @@
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="29" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B322" s="29" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D322" s="29" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="F322" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G322" s="82" t="b">
         <v>1</v>
@@ -21749,16 +21746,16 @@
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="29" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B323" s="29" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D323" s="29" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="F323" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G323" s="82" t="b">
         <v>1</v>
@@ -21772,16 +21769,16 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="29" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B324" s="29" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D324" s="29" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="F324" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G324" s="82" t="b">
         <v>1</v>
@@ -21795,16 +21792,16 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="29" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B325" s="29" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D325" s="29" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="F325" s="29" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="G325" s="82" t="b">
         <v>1</v>
@@ -21818,16 +21815,16 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="29" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B326" s="29" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D326" s="29" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F326" s="29" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="G326" s="82" t="b">
         <v>1</v>
@@ -21841,13 +21838,13 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="29" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B327" s="29" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D327" s="29" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="G327" s="82" t="b">
         <v>1</v>
@@ -21861,16 +21858,16 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="29" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B328" s="29" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D328" s="29" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="F328" s="29" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="G328" s="82" t="b">
         <v>1</v>
@@ -21884,16 +21881,16 @@
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="29" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B329" s="29" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D329" s="29" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="F329" s="29" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="G329" s="82" t="b">
         <v>1</v>
@@ -21907,16 +21904,16 @@
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="29" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B330" s="29" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D330" s="29" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="F330" s="29" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="G330" s="82" t="b">
         <v>1</v>
@@ -21930,16 +21927,16 @@
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="29" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B331" s="29" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D331" s="29" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="F331" s="29" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="G331" s="82" t="b">
         <v>1</v>
@@ -21953,16 +21950,16 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="29" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B332" s="29" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D332" s="29" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="F332" s="29" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="G332" s="82" t="b">
         <v>1</v>
@@ -21976,16 +21973,16 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="29" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B333" s="29" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D333" s="29" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="F333" s="29" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="G333" s="82" t="b">
         <v>1</v>
@@ -21999,16 +21996,16 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="29" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B334" s="29" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D334" s="29" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="F334" s="29" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="G334" s="82" t="b">
         <v>1</v>
@@ -22022,16 +22019,16 @@
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="29" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B335" s="29" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D335" s="29" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="F335" s="29" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="G335" s="82" t="b">
         <v>1</v>
@@ -22045,16 +22042,16 @@
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="29" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B336" s="29" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D336" s="29" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="F336" s="29" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G336" s="82" t="b">
         <v>1</v>
@@ -22068,16 +22065,16 @@
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="29" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B337" s="29" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D337" s="29" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="F337" s="29" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G337" s="82" t="b">
         <v>1</v>
@@ -22091,16 +22088,16 @@
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="29" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B338" s="29" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D338" s="29" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="F338" s="29" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="G338" s="82" t="b">
         <v>1</v>
@@ -22114,16 +22111,16 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="29" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B339" s="29" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D339" s="29" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="F339" s="29" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="G339" s="82" t="b">
         <v>1</v>
@@ -22137,16 +22134,16 @@
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="29" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B340" s="29" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D340" s="29" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="F340" s="29" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="G340" s="82" t="b">
         <v>1</v>
@@ -22160,16 +22157,16 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="29" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B341" s="29" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D341" s="29" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="F341" s="29" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="G341" s="82" t="b">
         <v>1</v>
@@ -22697,8 +22694,8 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22718,18 +22715,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
-        <v>919</v>
+      <c r="A2" s="84" t="s">
+        <v>916</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -22742,10 +22739,10 @@
     <row r="3" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:9" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
@@ -22756,11 +22753,11 @@
       <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:9" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
-        <v>923</v>
+      <c r="A5" s="84" t="s">
+        <v>920</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
@@ -22771,11 +22768,11 @@
       <c r="I5" s="48"/>
     </row>
     <row r="6" spans="1:9" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="85" t="s">
-        <v>925</v>
+      <c r="A6" s="84" t="s">
+        <v>922</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
@@ -22786,11 +22783,11 @@
       <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
-        <v>927</v>
+      <c r="A7" s="84" t="s">
+        <v>924</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
@@ -22801,11 +22798,11 @@
       <c r="I7" s="48"/>
     </row>
     <row r="8" spans="1:9" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="85" t="s">
-        <v>931</v>
+      <c r="A8" s="84" t="s">
+        <v>928</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
@@ -22816,11 +22813,11 @@
       <c r="I8" s="48"/>
     </row>
     <row r="9" spans="1:9" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="84" t="s">
+        <v>926</v>
+      </c>
+      <c r="B9" s="48" t="s">
         <v>929</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>932</v>
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48"/>
@@ -22831,11 +22828,11 @@
       <c r="I9" s="48"/>
     </row>
     <row r="10" spans="1:9" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="85" t="s">
-        <v>933</v>
+      <c r="A10" s="84" t="s">
+        <v>930</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="48"/>
@@ -22846,11 +22843,11 @@
       <c r="I10" s="48"/>
     </row>
     <row r="11" spans="1:9" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="85" t="s">
-        <v>935</v>
+      <c r="A11" s="84" t="s">
+        <v>932</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="48"/>
@@ -22861,11 +22858,11 @@
       <c r="I11" s="48"/>
     </row>
     <row r="12" spans="1:9" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
-        <v>937</v>
+      <c r="A12" s="84" t="s">
+        <v>934</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="48"/>
@@ -22876,11 +22873,11 @@
       <c r="I12" s="48"/>
     </row>
     <row r="13" spans="1:9" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="85" t="s">
-        <v>940</v>
+      <c r="A13" s="84" t="s">
+        <v>937</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C13" s="48"/>
       <c r="D13" s="48"/>
@@ -22891,11 +22888,11 @@
       <c r="I13" s="48"/>
     </row>
     <row r="14" spans="1:9" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="85" t="s">
-        <v>941</v>
+      <c r="A14" s="84" t="s">
+        <v>938</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="48"/>
@@ -22906,11 +22903,11 @@
       <c r="I14" s="48"/>
     </row>
     <row r="15" spans="1:9" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="85" t="s">
-        <v>943</v>
+      <c r="A15" s="84" t="s">
+        <v>940</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
@@ -22921,11 +22918,11 @@
       <c r="I15" s="48"/>
     </row>
     <row r="16" spans="1:9" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="85" t="s">
-        <v>945</v>
-      </c>
-      <c r="B16" s="86" t="s">
-        <v>946</v>
+      <c r="A16" s="84" t="s">
+        <v>942</v>
+      </c>
+      <c r="B16" s="85" t="s">
+        <v>943</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="48"/>
@@ -22958,11 +22955,11 @@
       <c r="I18" s="48"/>
     </row>
     <row r="19" spans="1:9" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="85" t="s">
-        <v>920</v>
+      <c r="A19" s="84" t="s">
+        <v>917</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C19" s="48"/>
       <c r="D19" s="48"/>
